--- a/pred_ohlcv/54_21/2020-01-15 DASH ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-15 DASH ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>134.46114377</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -860,7 +860,7 @@
         <v>122.34954377</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>122.34954377</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>122.04424377</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>113.39484377</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>111.39484377</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>180.7242777899999</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>180.8542777899999</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>198.35297779</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>228.7825777899999</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>573.60117841</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>925.5003620400003</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>925.5003620400003</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>932.5003620400003</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>932.3243620400002</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>940.9619620400002</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>940.9556620400002</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>939.9556620400002</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>938.9556620400002</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>953.8818227100003</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>941.0675227100003</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>941.0775227100003</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>941.0675227100003</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>969.8034227100003</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>969.8034227100003</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>975.1433227100003</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>943.1433227100003</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>966.9528227100003</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>973.7944227100004</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>992.4845227100004</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>998.8663227100004</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>999.8663227100004</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>1037.550322710001</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>1037.607322710001</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>1143.92192271</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>1119.17582271</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>1116.45382271</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>1107.741422710001</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>1104.76322271</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>1105.76322271</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>1074.37202271</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>1062.486722710001</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>1062.569722110001</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>1062.569722110001</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>1062.531822110001</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>1062.94342211</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>1062.94342211</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>1070.230782690001</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>1149.337753700001</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>1147.255553700001</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>1148.9993537</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>1154.848753700001</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>1146.4612537</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>1146.4612537</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>1160.316253700001</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>1190.167653700001</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>1167.602053700001</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>1167.602053700001</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>1110.290753700001</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>1116.5002537</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>1116.5002537</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>1119.7160537</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>1119.7160537</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>1123.1512537</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>1123.1512537</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>1127.7598537</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>1128.7598537</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>1141.0363537</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>1139.5163537</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>1165.4984537</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>1165.1330537</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>1272.9333537</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>1351.2654537</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>1429.6388537</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>1434.1265537</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>1461.7965537</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>1461.7965537</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>1461.62506115</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>1422.59006115</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>1422.59006115</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>1422.59006115</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>1430.94706115</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>1434.91406115</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>1441.26726115</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>1452.21036115</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>1472.48016115</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>1526.90356115</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>1533.59626115</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>1533.59626115</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>1626.66656115</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>1626.66656115</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>1626.55956115</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>1626.16486115</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>1619.44731797</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>1639.72601797</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>1638.91501797</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>1642.31571797</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>1640.03891797</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>1630.35981797</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>1630.65191797</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>1630.20591797</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>1630.20591797</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>1689.55671797</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>1685.11321797</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>1682.96551797</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>1642.58261797</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>1639.25781797</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>1731.97331797</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>1737.50571797</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>1737.50571797</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>1736.70771797</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>1728.16721797</v>
       </c>
       <c r="H310">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>1721.18011797</v>
       </c>
       <c r="H311">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>1860.32521797</v>
       </c>
       <c r="H312">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>1859.33241797</v>
       </c>
       <c r="H313">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>1857.07731797</v>
       </c>
       <c r="H314">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>1857.07731797</v>
       </c>
       <c r="H315">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>1857.29831797</v>
       </c>
       <c r="H316">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>1886.69311797</v>
       </c>
       <c r="H324">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>1886.54541797</v>
       </c>
       <c r="H325">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>1917.90341797</v>
       </c>
       <c r="H343">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>1945.221663939999</v>
       </c>
       <c r="H344">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>1944.221663939999</v>
       </c>
       <c r="H345">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>1944.221663939999</v>
       </c>
       <c r="H346">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>1960.401963939999</v>
       </c>
       <c r="H347">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>1966.461763939999</v>
       </c>
       <c r="H348">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>1976.401263939999</v>
       </c>
       <c r="H349">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>1969.338763939999</v>
       </c>
       <c r="H350">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>1970.103063939999</v>
       </c>
       <c r="H351">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>1935.729163939999</v>
       </c>
       <c r="H352">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>1935.729163939999</v>
       </c>
       <c r="H353">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>1935.729163939999</v>
       </c>
       <c r="H354">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>1935.729163939999</v>
       </c>
       <c r="H355">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>1935.729163939999</v>
       </c>
       <c r="H356">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>1935.729163939999</v>
       </c>
       <c r="H357">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>1935.729163939999</v>
       </c>
       <c r="H358">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>1930.028163939999</v>
       </c>
       <c r="H359">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>1929.391663939999</v>
       </c>
       <c r="H360">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>1929.391663939999</v>
       </c>
       <c r="H361">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>1929.391663939999</v>
       </c>
       <c r="H362">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>1910.622663939999</v>
       </c>
       <c r="H363">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>1933.404063939999</v>
       </c>
       <c r="H364">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>1933.404063939999</v>
       </c>
       <c r="H365">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>1933.404063939999</v>
       </c>
       <c r="H366">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>1980.246163939999</v>
       </c>
       <c r="H367">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>1978.308063939999</v>
       </c>
       <c r="H368">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>2023.540563939999</v>
       </c>
       <c r="H370">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>2025.834163939999</v>
       </c>
       <c r="H371">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>2039.181063939999</v>
       </c>
       <c r="H372">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>2051.816863939999</v>
       </c>
       <c r="H373">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>2063.341263939999</v>
       </c>
       <c r="H374">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>2061.793963939999</v>
       </c>
       <c r="H375">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>2060.930663939999</v>
       </c>
       <c r="H376">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>2070.498663939999</v>
       </c>
       <c r="H378">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>2082.378663939999</v>
       </c>
       <c r="H380">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>2082.378663939999</v>
       </c>
       <c r="H381">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>2719.502980279999</v>
       </c>
       <c r="H413">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>2920.287174899998</v>
       </c>
       <c r="H436">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>2906.032274899998</v>
       </c>
       <c r="H437">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>2894.834374899998</v>
       </c>
       <c r="H438">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>2885.981074899998</v>
       </c>
       <c r="H439">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>2895.172574899998</v>
       </c>
       <c r="H440">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>2873.547274899998</v>
       </c>
       <c r="H441">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>2888.830274899998</v>
       </c>
       <c r="H442">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>2887.845574899998</v>
       </c>
       <c r="H443">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>2897.719074899998</v>
       </c>
       <c r="H444">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>2887.894374899998</v>
       </c>
       <c r="H445">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>3456.070478579999</v>
       </c>
       <c r="H529">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -14172,7 +14172,7 @@
         <v>3487.910081599999</v>
       </c>
       <c r="H530">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -14198,7 +14198,7 @@
         <v>3514.550078579999</v>
       </c>
       <c r="H531">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>3514.550078579999</v>
       </c>
       <c r="H532">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14250,7 +14250,7 @@
         <v>3536.283178579999</v>
       </c>
       <c r="H533">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -14276,7 +14276,7 @@
         <v>3526.526178579998</v>
       </c>
       <c r="H534">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>3701.710478579998</v>
       </c>
       <c r="H535">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>3689.035978579998</v>
       </c>
       <c r="H536">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>3649.302578579998</v>
       </c>
       <c r="H537">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>3644.313678579998</v>
       </c>
       <c r="H538">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>3605.258378579998</v>
       </c>
       <c r="H539">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -14432,7 +14432,7 @@
         <v>3626.379378579999</v>
       </c>
       <c r="H540">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -14458,7 +14458,7 @@
         <v>3651.135978579999</v>
       </c>
       <c r="H541">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -14484,7 +14484,7 @@
         <v>3691.778478579999</v>
       </c>
       <c r="H542">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -14510,7 +14510,7 @@
         <v>3652.124778579999</v>
       </c>
       <c r="H543">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -14536,7 +14536,7 @@
         <v>3652.402178579999</v>
       </c>
       <c r="H544">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -14562,7 +14562,7 @@
         <v>3655.056978579998</v>
       </c>
       <c r="H545">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -14588,7 +14588,7 @@
         <v>3646.791278579999</v>
       </c>
       <c r="H546">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -14614,7 +14614,7 @@
         <v>3649.357478579999</v>
       </c>
       <c r="H547">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -14640,7 +14640,7 @@
         <v>3649.357478579999</v>
       </c>
       <c r="H548">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -14666,7 +14666,7 @@
         <v>3649.357478579999</v>
       </c>
       <c r="H549">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>3170.193678579999</v>
       </c>
       <c r="H550">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>3184.043978579999</v>
       </c>
       <c r="H551">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -14744,7 +14744,7 @@
         <v>3179.876978579999</v>
       </c>
       <c r="H552">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -14978,7 +14978,7 @@
         <v>3634.802178579999</v>
       </c>
       <c r="H561">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -15472,7 +15472,7 @@
         <v>3579.733783969999</v>
       </c>
       <c r="H580">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="581" spans="1:8">
@@ -15498,7 +15498,7 @@
         <v>3624.494483969998</v>
       </c>
       <c r="H581">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="582" spans="1:8">
@@ -15628,7 +15628,7 @@
         <v>3717.379583969998</v>
       </c>
       <c r="H586">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="587" spans="1:8">
@@ -15654,7 +15654,7 @@
         <v>3735.042983969998</v>
       </c>
       <c r="H587">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="588" spans="1:8">
@@ -15680,7 +15680,7 @@
         <v>3735.042983969998</v>
       </c>
       <c r="H588">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="589" spans="1:8">
@@ -15706,7 +15706,7 @@
         <v>3735.435483969998</v>
       </c>
       <c r="H589">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="590" spans="1:8">
@@ -15732,7 +15732,7 @@
         <v>3748.046683969998</v>
       </c>
       <c r="H590">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="591" spans="1:8">
@@ -15758,7 +15758,7 @@
         <v>3752.518183969998</v>
       </c>
       <c r="H591">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="592" spans="1:8">
@@ -15784,7 +15784,7 @@
         <v>3759.274783969998</v>
       </c>
       <c r="H592">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="593" spans="1:8">
@@ -15810,7 +15810,7 @@
         <v>3801.347236129998</v>
       </c>
       <c r="H593">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="594" spans="1:8">
@@ -15836,7 +15836,7 @@
         <v>3793.202836129998</v>
       </c>
       <c r="H594">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="595" spans="1:8">
@@ -15862,7 +15862,7 @@
         <v>3812.563048569998</v>
       </c>
       <c r="H595">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="596" spans="1:8">
@@ -15888,7 +15888,7 @@
         <v>3799.875748569998</v>
       </c>
       <c r="H596">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="597" spans="1:8">
@@ -15914,7 +15914,7 @@
         <v>3787.688448569998</v>
       </c>
       <c r="H597">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="598" spans="1:8">
@@ -15940,7 +15940,7 @@
         <v>3815.034648569998</v>
       </c>
       <c r="H598">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="599" spans="1:8">
@@ -15966,7 +15966,7 @@
         <v>3811.316748569998</v>
       </c>
       <c r="H599">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="600" spans="1:8">
@@ -15992,7 +15992,7 @@
         <v>3796.571848569998</v>
       </c>
       <c r="H600">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="601" spans="1:8">
@@ -16018,7 +16018,7 @@
         <v>3758.854748569998</v>
       </c>
       <c r="H601">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="602" spans="1:8">
@@ -16044,7 +16044,7 @@
         <v>3758.854748569998</v>
       </c>
       <c r="H602">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="603" spans="1:8">
@@ -16070,7 +16070,7 @@
         <v>3818.701348569998</v>
       </c>
       <c r="H603">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="604" spans="1:8">
@@ -16096,7 +16096,7 @@
         <v>3804.505248569998</v>
       </c>
       <c r="H604">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="605" spans="1:8">
@@ -16122,7 +16122,7 @@
         <v>3804.505248569998</v>
       </c>
       <c r="H605">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="606" spans="1:8">
@@ -16148,7 +16148,7 @@
         <v>3792.809048569998</v>
       </c>
       <c r="H606">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="607" spans="1:8">
@@ -16174,7 +16174,7 @@
         <v>3792.639548569998</v>
       </c>
       <c r="H607">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="608" spans="1:8">
@@ -16200,7 +16200,7 @@
         <v>3791.596748569998</v>
       </c>
       <c r="H608">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="609" spans="1:8">
@@ -16226,7 +16226,7 @@
         <v>3786.766148569998</v>
       </c>
       <c r="H609">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="610" spans="1:8">
@@ -16252,7 +16252,7 @@
         <v>3816.266148569998</v>
       </c>
       <c r="H610">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="611" spans="1:8">
@@ -16278,7 +16278,7 @@
         <v>3815.766148569998</v>
       </c>
       <c r="H611">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="612" spans="1:8">
@@ -16304,7 +16304,7 @@
         <v>3815.766148569998</v>
       </c>
       <c r="H612">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="613" spans="1:8">
@@ -16330,7 +16330,7 @@
         <v>3814.622748569998</v>
       </c>
       <c r="H613">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="614" spans="1:8">
@@ -16356,7 +16356,7 @@
         <v>3814.622748569998</v>
       </c>
       <c r="H614">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="615" spans="1:8">
@@ -16382,7 +16382,7 @@
         <v>3814.547748569998</v>
       </c>
       <c r="H615">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="616" spans="1:8">
@@ -16408,7 +16408,7 @@
         <v>3815.136048569998</v>
       </c>
       <c r="H616">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="617" spans="1:8">
@@ -16434,7 +16434,7 @@
         <v>3815.220248569998</v>
       </c>
       <c r="H617">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="618" spans="1:8">
@@ -16460,7 +16460,7 @@
         <v>3815.420248569998</v>
       </c>
       <c r="H618">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="619" spans="1:8">
@@ -16486,7 +16486,7 @@
         <v>3815.409648569997</v>
       </c>
       <c r="H619">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="620" spans="1:8">
@@ -16512,7 +16512,7 @@
         <v>3814.106248569998</v>
       </c>
       <c r="H620">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="621" spans="1:8">
@@ -16538,7 +16538,7 @@
         <v>3814.106248569998</v>
       </c>
       <c r="H621">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="622" spans="1:8">
@@ -16564,7 +16564,7 @@
         <v>3814.106248569998</v>
       </c>
       <c r="H622">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="623" spans="1:8">
@@ -16590,7 +16590,7 @@
         <v>3796.980748569998</v>
       </c>
       <c r="H623">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="624" spans="1:8">
@@ -16616,7 +16616,7 @@
         <v>3804.014848569997</v>
       </c>
       <c r="H624">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="625" spans="1:8">
@@ -16642,7 +16642,7 @@
         <v>3783.916448569998</v>
       </c>
       <c r="H625">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="626" spans="1:8">
@@ -16668,7 +16668,7 @@
         <v>3793.697448569998</v>
       </c>
       <c r="H626">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="627" spans="1:8">
@@ -16694,7 +16694,7 @@
         <v>3841.623948569998</v>
       </c>
       <c r="H627">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="628" spans="1:8">
@@ -16720,7 +16720,7 @@
         <v>3858.279848569998</v>
       </c>
       <c r="H628">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="629" spans="1:8">
@@ -16746,7 +16746,7 @@
         <v>3852.661848569998</v>
       </c>
       <c r="H629">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="630" spans="1:8">
@@ -16772,7 +16772,7 @@
         <v>3852.661848569998</v>
       </c>
       <c r="H630">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="631" spans="1:8">
@@ -16798,7 +16798,7 @@
         <v>3853.597748569998</v>
       </c>
       <c r="H631">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -16824,7 +16824,7 @@
         <v>3853.597748569998</v>
       </c>
       <c r="H632">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="633" spans="1:8">
@@ -16850,7 +16850,7 @@
         <v>4152.578748569998</v>
       </c>
       <c r="H633">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -16876,7 +16876,7 @@
         <v>4140.572748569997</v>
       </c>
       <c r="H634">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="635" spans="1:8">
@@ -16902,7 +16902,7 @@
         <v>4139.885148569997</v>
       </c>
       <c r="H635">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="636" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>4139.784848569997</v>
       </c>
       <c r="H636">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>4139.784848569997</v>
       </c>
       <c r="H637">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -16980,7 +16980,7 @@
         <v>4142.980148569997</v>
       </c>
       <c r="H638">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="639" spans="1:8">
@@ -17006,7 +17006,7 @@
         <v>4142.980148569997</v>
       </c>
       <c r="H639">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="640" spans="1:8">
@@ -17032,7 +17032,7 @@
         <v>4238.209348569997</v>
       </c>
       <c r="H640">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="641" spans="1:8">
@@ -17058,7 +17058,7 @@
         <v>4240.711648569997</v>
       </c>
       <c r="H641">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-15 DASH ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-15 DASH ohlcv.xlsx
@@ -860,7 +860,7 @@
         <v>122.34954377</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>122.34954377</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>122.04424377</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>113.39484377</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>111.39484377</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>180.7242777899999</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>180.8542777899999</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>198.35297779</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>228.7825777899999</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>573.60117841</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>925.5003620400003</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>925.5003620400003</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>932.5003620400003</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>932.3243620400002</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>940.9619620400002</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>940.9556620400002</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>939.9556620400002</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>938.9556620400002</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>953.8818227100003</v>
       </c>
       <c r="H207">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>941.0675227100003</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>941.0775227100003</v>
       </c>
       <c r="H209">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>941.0675227100003</v>
       </c>
       <c r="H210">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>969.8034227100003</v>
       </c>
       <c r="H211">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>969.8034227100003</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>975.1433227100003</v>
       </c>
       <c r="H213">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>943.1433227100003</v>
       </c>
       <c r="H214">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>966.9528227100003</v>
       </c>
       <c r="H217">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>973.7944227100004</v>
       </c>
       <c r="H222">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>992.4845227100004</v>
       </c>
       <c r="H223">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>998.8663227100004</v>
       </c>
       <c r="H224">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>999.8663227100004</v>
       </c>
       <c r="H225">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>1037.550322710001</v>
       </c>
       <c r="H226">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>1037.607322710001</v>
       </c>
       <c r="H227">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>1143.92192271</v>
       </c>
       <c r="H228">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>1119.17582271</v>
       </c>
       <c r="H229">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>1116.45382271</v>
       </c>
       <c r="H230">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>1107.741422710001</v>
       </c>
       <c r="H231">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>1104.76322271</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>1105.76322271</v>
       </c>
       <c r="H233">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>1074.37202271</v>
       </c>
       <c r="H234">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>1062.486722710001</v>
       </c>
       <c r="H235">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>1062.569722110001</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>1062.569722110001</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>1062.531822110001</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>1062.94342211</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>1062.94342211</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>1070.230782690001</v>
       </c>
       <c r="H241">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>1149.337753700001</v>
       </c>
       <c r="H242">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>1147.255553700001</v>
       </c>
       <c r="H243">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>1148.9993537</v>
       </c>
       <c r="H244">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>1154.848753700001</v>
       </c>
       <c r="H245">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>1146.4612537</v>
       </c>
       <c r="H246">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>1146.4612537</v>
       </c>
       <c r="H247">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>1160.316253700001</v>
       </c>
       <c r="H248">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>1190.167653700001</v>
       </c>
       <c r="H249">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>1167.602053700001</v>
       </c>
       <c r="H250">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>1167.602053700001</v>
       </c>
       <c r="H251">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>1110.290753700001</v>
       </c>
       <c r="H252">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>1116.5002537</v>
       </c>
       <c r="H253">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>1116.5002537</v>
       </c>
       <c r="H254">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>1119.7160537</v>
       </c>
       <c r="H255">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>1119.7160537</v>
       </c>
       <c r="H256">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>1123.1512537</v>
       </c>
       <c r="H257">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>1123.1512537</v>
       </c>
       <c r="H258">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>1127.7598537</v>
       </c>
       <c r="H259">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>1128.7598537</v>
       </c>
       <c r="H260">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>1141.0363537</v>
       </c>
       <c r="H261">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>1139.5163537</v>
       </c>
       <c r="H262">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>1165.4984537</v>
       </c>
       <c r="H263">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>1165.1330537</v>
       </c>
       <c r="H264">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>1272.9333537</v>
       </c>
       <c r="H265">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>1351.2654537</v>
       </c>
       <c r="H266">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>1429.6388537</v>
       </c>
       <c r="H267">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>1434.1265537</v>
       </c>
       <c r="H268">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>1461.7965537</v>
       </c>
       <c r="H269">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>1461.7965537</v>
       </c>
       <c r="H270">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>1461.62506115</v>
       </c>
       <c r="H271">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>1422.59006115</v>
       </c>
       <c r="H272">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>1422.59006115</v>
       </c>
       <c r="H273">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>1422.59006115</v>
       </c>
       <c r="H274">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>1430.94706115</v>
       </c>
       <c r="H275">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>1434.91406115</v>
       </c>
       <c r="H276">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>1441.26726115</v>
       </c>
       <c r="H277">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>1452.21036115</v>
       </c>
       <c r="H278">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>1472.48016115</v>
       </c>
       <c r="H279">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>1526.90356115</v>
       </c>
       <c r="H280">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>1533.59626115</v>
       </c>
       <c r="H281">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>1533.59626115</v>
       </c>
       <c r="H282">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>1626.66656115</v>
       </c>
       <c r="H283">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>1626.66656115</v>
       </c>
       <c r="H284">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>1626.55956115</v>
       </c>
       <c r="H285">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>1626.16486115</v>
       </c>
       <c r="H286">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>1619.44731797</v>
       </c>
       <c r="H287">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>1639.72601797</v>
       </c>
       <c r="H291">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>1638.91501797</v>
       </c>
       <c r="H292">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>1642.31571797</v>
       </c>
       <c r="H293">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>1640.03891797</v>
       </c>
       <c r="H294">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>1630.35981797</v>
       </c>
       <c r="H295">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>1630.65191797</v>
       </c>
       <c r="H296">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>1630.20591797</v>
       </c>
       <c r="H297">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>1630.20591797</v>
       </c>
       <c r="H298">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>1689.55671797</v>
       </c>
       <c r="H299">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>1685.11321797</v>
       </c>
       <c r="H302">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>1682.96551797</v>
       </c>
       <c r="H303">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>1642.58261797</v>
       </c>
       <c r="H304">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>1639.25781797</v>
       </c>
       <c r="H305">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>1731.97331797</v>
       </c>
       <c r="H306">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>1737.50571797</v>
       </c>
       <c r="H307">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>1737.50571797</v>
       </c>
       <c r="H308">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>1736.70771797</v>
       </c>
       <c r="H309">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>1728.16721797</v>
       </c>
       <c r="H310">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>1721.18011797</v>
       </c>
       <c r="H311">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>1860.32521797</v>
       </c>
       <c r="H312">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>1859.33241797</v>
       </c>
       <c r="H313">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>1857.07731797</v>
       </c>
       <c r="H314">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>1857.07731797</v>
       </c>
       <c r="H315">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>1857.29831797</v>
       </c>
       <c r="H316">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>1886.69311797</v>
       </c>
       <c r="H324">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>1886.54541797</v>
       </c>
       <c r="H325">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>1917.90341797</v>
       </c>
       <c r="H343">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>1945.221663939999</v>
       </c>
       <c r="H344">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>1944.221663939999</v>
       </c>
       <c r="H345">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>1944.221663939999</v>
       </c>
       <c r="H346">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>1960.401963939999</v>
       </c>
       <c r="H347">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>1966.461763939999</v>
       </c>
       <c r="H348">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>1976.401263939999</v>
       </c>
       <c r="H349">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>1969.338763939999</v>
       </c>
       <c r="H350">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>1970.103063939999</v>
       </c>
       <c r="H351">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>1935.729163939999</v>
       </c>
       <c r="H352">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>1935.729163939999</v>
       </c>
       <c r="H353">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>1935.729163939999</v>
       </c>
       <c r="H354">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>1935.729163939999</v>
       </c>
       <c r="H355">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>1935.729163939999</v>
       </c>
       <c r="H356">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>1935.729163939999</v>
       </c>
       <c r="H357">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>1935.729163939999</v>
       </c>
       <c r="H358">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>1930.028163939999</v>
       </c>
       <c r="H359">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>1929.391663939999</v>
       </c>
       <c r="H360">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>1929.391663939999</v>
       </c>
       <c r="H361">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>1929.391663939999</v>
       </c>
       <c r="H362">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>1910.622663939999</v>
       </c>
       <c r="H363">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>1933.404063939999</v>
       </c>
       <c r="H364">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>1933.404063939999</v>
       </c>
       <c r="H365">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>1933.404063939999</v>
       </c>
       <c r="H366">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>1980.246163939999</v>
       </c>
       <c r="H367">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>1978.308063939999</v>
       </c>
       <c r="H368">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>2023.540563939999</v>
       </c>
       <c r="H370">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>2025.834163939999</v>
       </c>
       <c r="H371">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>2039.181063939999</v>
       </c>
       <c r="H372">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>2051.816863939999</v>
       </c>
       <c r="H373">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>2063.341263939999</v>
       </c>
       <c r="H374">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>2061.793963939999</v>
       </c>
       <c r="H375">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>2060.930663939999</v>
       </c>
       <c r="H376">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>2070.498663939999</v>
       </c>
       <c r="H378">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>2082.378663939999</v>
       </c>
       <c r="H380">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>2082.378663939999</v>
       </c>
       <c r="H381">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>2719.502980279999</v>
       </c>
       <c r="H413">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>2920.287174899998</v>
       </c>
       <c r="H436">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>2906.032274899998</v>
       </c>
       <c r="H437">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>2894.834374899998</v>
       </c>
       <c r="H438">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>2885.981074899998</v>
       </c>
       <c r="H439">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>2895.172574899998</v>
       </c>
       <c r="H440">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>2873.547274899998</v>
       </c>
       <c r="H441">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>2888.830274899998</v>
       </c>
       <c r="H442">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>2887.845574899998</v>
       </c>
       <c r="H443">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>2897.719074899998</v>
       </c>
       <c r="H444">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>2887.894374899998</v>
       </c>
       <c r="H445">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>3475.173647509998</v>
       </c>
       <c r="H527">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -14120,7 +14120,7 @@
         <v>3486.320678579998</v>
       </c>
       <c r="H528">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>3456.070478579999</v>
       </c>
       <c r="H529">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -14172,7 +14172,7 @@
         <v>3487.910081599999</v>
       </c>
       <c r="H530">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -14198,7 +14198,7 @@
         <v>3514.550078579999</v>
       </c>
       <c r="H531">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>3514.550078579999</v>
       </c>
       <c r="H532">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14250,7 +14250,7 @@
         <v>3536.283178579999</v>
       </c>
       <c r="H533">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -14276,7 +14276,7 @@
         <v>3526.526178579998</v>
       </c>
       <c r="H534">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>3701.710478579998</v>
       </c>
       <c r="H535">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>3689.035978579998</v>
       </c>
       <c r="H536">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>3649.302578579998</v>
       </c>
       <c r="H537">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>3644.313678579998</v>
       </c>
       <c r="H538">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>3605.258378579998</v>
       </c>
       <c r="H539">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -14432,7 +14432,7 @@
         <v>3626.379378579999</v>
       </c>
       <c r="H540">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -14458,7 +14458,7 @@
         <v>3651.135978579999</v>
       </c>
       <c r="H541">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -14484,7 +14484,7 @@
         <v>3691.778478579999</v>
       </c>
       <c r="H542">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -14510,7 +14510,7 @@
         <v>3652.124778579999</v>
       </c>
       <c r="H543">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -14536,7 +14536,7 @@
         <v>3652.402178579999</v>
       </c>
       <c r="H544">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -14562,7 +14562,7 @@
         <v>3655.056978579998</v>
       </c>
       <c r="H545">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -14588,7 +14588,7 @@
         <v>3646.791278579999</v>
       </c>
       <c r="H546">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -14614,7 +14614,7 @@
         <v>3649.357478579999</v>
       </c>
       <c r="H547">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -14640,7 +14640,7 @@
         <v>3649.357478579999</v>
       </c>
       <c r="H548">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -14666,7 +14666,7 @@
         <v>3649.357478579999</v>
       </c>
       <c r="H549">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>3170.193678579999</v>
       </c>
       <c r="H550">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>3184.043978579999</v>
       </c>
       <c r="H551">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -14744,7 +14744,7 @@
         <v>3179.876978579999</v>
       </c>
       <c r="H552">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -15706,7 +15706,7 @@
         <v>3735.435483969998</v>
       </c>
       <c r="H589">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="590" spans="1:8">
@@ -15784,7 +15784,7 @@
         <v>3759.274783969998</v>
       </c>
       <c r="H592">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="593" spans="1:8">
@@ -15810,7 +15810,7 @@
         <v>3801.347236129998</v>
       </c>
       <c r="H593">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="594" spans="1:8">
@@ -15836,7 +15836,7 @@
         <v>3793.202836129998</v>
       </c>
       <c r="H594">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="595" spans="1:8">
@@ -15862,7 +15862,7 @@
         <v>3812.563048569998</v>
       </c>
       <c r="H595">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="596" spans="1:8">
@@ -15888,7 +15888,7 @@
         <v>3799.875748569998</v>
       </c>
       <c r="H596">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="597" spans="1:8">
@@ -15914,7 +15914,7 @@
         <v>3787.688448569998</v>
       </c>
       <c r="H597">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="598" spans="1:8">
@@ -15940,7 +15940,7 @@
         <v>3815.034648569998</v>
       </c>
       <c r="H598">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="599" spans="1:8">
@@ -15966,7 +15966,7 @@
         <v>3811.316748569998</v>
       </c>
       <c r="H599">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="600" spans="1:8">
@@ -15992,7 +15992,7 @@
         <v>3796.571848569998</v>
       </c>
       <c r="H600">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="601" spans="1:8">
@@ -16018,7 +16018,7 @@
         <v>3758.854748569998</v>
       </c>
       <c r="H601">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="602" spans="1:8">
@@ -16044,7 +16044,7 @@
         <v>3758.854748569998</v>
       </c>
       <c r="H602">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="603" spans="1:8">
@@ -16070,7 +16070,7 @@
         <v>3818.701348569998</v>
       </c>
       <c r="H603">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="604" spans="1:8">
@@ -16096,7 +16096,7 @@
         <v>3804.505248569998</v>
       </c>
       <c r="H604">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="605" spans="1:8">
@@ -16122,7 +16122,7 @@
         <v>3804.505248569998</v>
       </c>
       <c r="H605">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="606" spans="1:8">
@@ -16148,7 +16148,7 @@
         <v>3792.809048569998</v>
       </c>
       <c r="H606">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="607" spans="1:8">
@@ -16174,7 +16174,7 @@
         <v>3792.639548569998</v>
       </c>
       <c r="H607">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="608" spans="1:8">
@@ -16200,7 +16200,7 @@
         <v>3791.596748569998</v>
       </c>
       <c r="H608">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="609" spans="1:8">
@@ -16226,7 +16226,7 @@
         <v>3786.766148569998</v>
       </c>
       <c r="H609">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="610" spans="1:8">
@@ -16252,7 +16252,7 @@
         <v>3816.266148569998</v>
       </c>
       <c r="H610">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="611" spans="1:8">
@@ -16278,7 +16278,7 @@
         <v>3815.766148569998</v>
       </c>
       <c r="H611">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="612" spans="1:8">
@@ -16304,7 +16304,7 @@
         <v>3815.766148569998</v>
       </c>
       <c r="H612">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="613" spans="1:8">
@@ -16330,7 +16330,7 @@
         <v>3814.622748569998</v>
       </c>
       <c r="H613">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="614" spans="1:8">
@@ -16356,7 +16356,7 @@
         <v>3814.622748569998</v>
       </c>
       <c r="H614">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="615" spans="1:8">
@@ -16382,7 +16382,7 @@
         <v>3814.547748569998</v>
       </c>
       <c r="H615">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="616" spans="1:8">
@@ -16408,7 +16408,7 @@
         <v>3815.136048569998</v>
       </c>
       <c r="H616">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="617" spans="1:8">
@@ -16434,7 +16434,7 @@
         <v>3815.220248569998</v>
       </c>
       <c r="H617">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="618" spans="1:8">
@@ -16460,7 +16460,7 @@
         <v>3815.420248569998</v>
       </c>
       <c r="H618">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="619" spans="1:8">
@@ -16486,7 +16486,7 @@
         <v>3815.409648569997</v>
       </c>
       <c r="H619">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="620" spans="1:8">
@@ -16512,7 +16512,7 @@
         <v>3814.106248569998</v>
       </c>
       <c r="H620">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="621" spans="1:8">
@@ -16538,7 +16538,7 @@
         <v>3814.106248569998</v>
       </c>
       <c r="H621">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="622" spans="1:8">
@@ -16564,7 +16564,7 @@
         <v>3814.106248569998</v>
       </c>
       <c r="H622">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="623" spans="1:8">
@@ -16590,7 +16590,7 @@
         <v>3796.980748569998</v>
       </c>
       <c r="H623">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="624" spans="1:8">
@@ -16616,7 +16616,7 @@
         <v>3804.014848569997</v>
       </c>
       <c r="H624">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="625" spans="1:8">
@@ -16642,7 +16642,7 @@
         <v>3783.916448569998</v>
       </c>
       <c r="H625">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="626" spans="1:8">
@@ -16668,7 +16668,7 @@
         <v>3793.697448569998</v>
       </c>
       <c r="H626">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="627" spans="1:8">
@@ -16694,7 +16694,7 @@
         <v>3841.623948569998</v>
       </c>
       <c r="H627">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="628" spans="1:8">
@@ -16720,7 +16720,7 @@
         <v>3858.279848569998</v>
       </c>
       <c r="H628">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="629" spans="1:8">
@@ -16746,7 +16746,7 @@
         <v>3852.661848569998</v>
       </c>
       <c r="H629">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="630" spans="1:8">
@@ -16772,7 +16772,7 @@
         <v>3852.661848569998</v>
       </c>
       <c r="H630">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="631" spans="1:8">
@@ -16798,7 +16798,7 @@
         <v>3853.597748569998</v>
       </c>
       <c r="H631">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -16824,7 +16824,7 @@
         <v>3853.597748569998</v>
       </c>
       <c r="H632">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="633" spans="1:8">
@@ -16850,7 +16850,7 @@
         <v>4152.578748569998</v>
       </c>
       <c r="H633">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -16876,7 +16876,7 @@
         <v>4140.572748569997</v>
       </c>
       <c r="H634">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="635" spans="1:8">
@@ -16902,7 +16902,7 @@
         <v>4139.885148569997</v>
       </c>
       <c r="H635">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="636" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>4139.784848569997</v>
       </c>
       <c r="H636">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>4139.784848569997</v>
       </c>
       <c r="H637">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -16980,7 +16980,7 @@
         <v>4142.980148569997</v>
       </c>
       <c r="H638">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="639" spans="1:8">
@@ -17006,7 +17006,7 @@
         <v>4142.980148569997</v>
       </c>
       <c r="H639">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="640" spans="1:8">
@@ -17032,7 +17032,7 @@
         <v>4238.209348569997</v>
       </c>
       <c r="H640">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="641" spans="1:8">
@@ -17058,7 +17058,7 @@
         <v>4240.711648569997</v>
       </c>
       <c r="H641">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
